--- a/kanban-sizing-model.xlsx
+++ b/kanban-sizing-model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44d110be402d225b/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkc06\OneDrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98E9602-28CC-42CB-9BAD-CA8AF2577668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469923E4-94BD-40B3-9B1F-CA877FEE1001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,8 +450,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -469,7 +469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="50800" y="12700"/>
-          <a:ext cx="17043400" cy="800100"/>
+          <a:ext cx="18294350" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -508,22 +508,18 @@
             <a:rPr lang="en-US" sz="2400" b="1"/>
             <a:t>Kanban Lead-Time Demand &amp; Card Sizing Model</a:t>
           </a:r>
-          <a:br>
-            <a:rPr lang="en-US"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" i="1"/>
-            <a:t>(with service-level safety stock and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000"/>
-            <a:t>demand/lead-time variability</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="2000" i="1"/>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0"/>
+            <a:t>(with service-level</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" baseline="0"/>
+            <a:t> safety stock and demand/lead-time variability)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -670,8 +666,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -687,7 +683,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="38100" y="4324350"/>
-          <a:ext cx="9791700" cy="6216650"/>
+          <a:ext cx="9791700" cy="6407150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -897,8 +893,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -916,7 +912,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10420350" y="996950"/>
-          <a:ext cx="6699250" cy="3492500"/>
+          <a:ext cx="7924800" cy="3492500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,10 +1069,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1092,7 +1088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10433050" y="4705350"/>
-          <a:ext cx="6699250" cy="1905000"/>
+          <a:ext cx="7899400" cy="1651000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1159,22 +1155,58 @@
             <a:rPr lang="en-US" sz="1400"/>
           </a:br>
           <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>•</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>• Periods are consistent (e.g., daily or weekly measurements are not mixed).</a:t>
+            <a:t> Periods are consistent (e.g., daily or weekly measurements are not mixed).</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400"/>
           </a:br>
           <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>•</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>• The model is intended for planning and scenario analysis, not for real-time operational execution.</a:t>
+            <a:t> The model is intended for planning and scenario analysis, not for real-time operational execution.</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400"/>
           </a:br>
           <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>•</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>• Results are sensitive to the quality and representativeness of the historical data provided.</a:t>
+            <a:t> Results are sensitive to the quality and representativeness of the historical data provided.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1917,7 +1949,106 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>=20.35×5=101.75</m:t>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>20</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>35</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>5</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>101</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1400" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>75</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -3588,7 +3719,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/kanban-sizing-model.xlsx
+++ b/kanban-sizing-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkc06\OneDrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469923E4-94BD-40B3-9B1F-CA877FEE1001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF209ED-D793-492E-831A-3D5ADCFFAD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,12 +602,20 @@
             <a:rPr lang="en-US" sz="1400" b="1"/>
             <a:t>Purpose</a:t>
           </a:r>
-          <a:br>
+          <a:endParaRPr lang="en-US" sz="1400" b="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0"/>
+            <a:t>This</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
+            <a:t> workbook is a planning and sizing tool that estimates the recommeded number of kanban cards </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>This workbook is a planning and sizing tool that estimates the recommended number of Kanban cards (containers) and the reorder point required to support a given demand and lead-time profile under a selected safety policy.</a:t>
+            <a:t>(containers) and the reorder point required to support a given demand and lead-time profile under a selected safety policy. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1149,7 +1157,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>• Demand and lead-time observations are assumed to be independent.</a:t>
+            <a:t>• Demand and lead-time observations are assumed to be independent</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400"/>
@@ -1168,7 +1176,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t> Periods are consistent (e.g., daily or weekly measurements are not mixed).</a:t>
+            <a:t> Periods are consistent (e.g., daily or weekly measurements are not mixed)</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400"/>
@@ -1187,7 +1195,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t> The model is intended for planning and scenario analysis, not for real-time operational execution.</a:t>
+            <a:t> The model is intended for planning and scenario analysis, not for real-time operational execution</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1400"/>
@@ -1206,7 +1214,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t> Results are sensitive to the quality and representativeness of the historical data provided.</a:t>
+            <a:t> Results are sensitive to the quality and representativeness of the historical data provided</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1949,106 +1957,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="0">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>20</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="0">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>.</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="0">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>35</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="0">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>×</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="0">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>5</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="0">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="0">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>101</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="0">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>.</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1400" i="0">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>75</m:t>
+                      <m:t>=20.35×5=101.75</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -3718,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/kanban-sizing-model.xlsx
+++ b/kanban-sizing-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkc06\OneDrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF209ED-D793-492E-831A-3D5ADCFFAD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3116F31-8CEE-497B-9D1A-1089FEB014B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,10 @@
             <a:rPr lang="en-US" sz="1400" b="1"/>
             <a:t>Purpose</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:r>
@@ -615,13 +618,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>(containers) and the reorder point required to support a given demand and lead-time profile under a selected safety policy. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>It supports inventory sizing and replenishment planning by translating observed demand and lead-time behavior into a discrete Kanban configuration.</a:t>
+            <a:t>(containers) and the reorder point required to support a given demand and lead-time profile under a selected safety policy. It supports inventory sizing and replenishment planning by translating observed demand and lead-time behavior into a discrete Kanban configuration.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1157,64 +1154,15 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-            <a:t>• Demand and lead-time observations are assumed to be independent</a:t>
-          </a:r>
-          <a:br>
+            <a:t>• Demand and lead-time observations are assumed to be independent. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>                                                             </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1400"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>•</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t> Periods are consistent (e.g., daily or weekly measurements are not mixed)</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1400"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>•</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t> The model is intended for planning and scenario analysis, not for real-time operational execution</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1400"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>•</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t> Results are sensitive to the quality and representativeness of the historical data provided</a:t>
+            <a:t>• Periods are consistent (e.g., daily or weekly measurements are not mixed).                                                     • The model is intended for planning and scenario analysis, not for real-time operational execution.            • Results are sensitive to the quality and representativeness of the historical data provided.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3727,7 +3675,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
